--- a/biology/Botanique/Nierembergia_filicaulis/Nierembergia_filicaulis.xlsx
+++ b/biology/Botanique/Nierembergia_filicaulis/Nierembergia_filicaulis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nierembergia filicaulis est une espèce de plantes de la famille des Solanacées originaire d'Amérique du Sud.
 </t>
@@ -511,11 +523,13 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">John Lindley décrit cette plante en 1833 à partir d'un exemplaire qu'il croyait originaire du Mexique et envoyé par George Tate. William Jackson Hooker, l'année suivante, constate qu'il s'agit d'un exemplaire envoyé par John Tweedie de Buenos Aires[1].
-En 1837, Constantine Samuel Rafinesque en fait l'espèce type du genre Siphonema qu'il crée : Siphonema filicaulis (Lindl.) Raf.[2]
-En 1909, Émile Hassler en fait une variété de Nierembergia angustifolia : Nierembergia angustifolia var. filicaulis (Lindl.) Hassl.[3]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John Lindley décrit cette plante en 1833 à partir d'un exemplaire qu'il croyait originaire du Mexique et envoyé par George Tate. William Jackson Hooker, l'année suivante, constate qu'il s'agit d'un exemplaire envoyé par John Tweedie de Buenos Aires.
+En 1837, Constantine Samuel Rafinesque en fait l'espèce type du genre Siphonema qu'il crée : Siphonema filicaulis (Lindl.) Raf.
+En 1909, Émile Hassler en fait une variété de Nierembergia angustifolia : Nierembergia angustifolia var. filicaulis (Lindl.) Hassl.
 Enfin, en 1870, Elisa de Vilmorin publie une espèce horticole homonyme, dans « Les fleurs de pleine terre » : Nierembergia filicaulis Hort. ex E.Vilm., espèce qui est en réalité Nierembergia gracilis.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une plante vivace — si les températures restent globalement positives —, buissonnante, de moins de cinquante centimètres de haut.
 Ses tiges sont très grêles et fines, ramifiées et dressées : la finesse des tiges est à l'origine de l'épithète spécifique. L'ensemble des feuilles et de la tige de la plante est glabre, ce qui constitue une des caractéristiques de cette espèce.
@@ -579,9 +595,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nierembergia filicaulis est une plante originaire d'Amérique centrale et du Sud : Mexique, Panama, Brésil, Argentine, Paraguay[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nierembergia filicaulis est une plante originaire d'Amérique centrale et du Sud : Mexique, Panama, Brésil, Argentine, Paraguay.
 Elle s'implante en sol plutôt sec et ensoleillé. Elle est légèrement plus résistante au gel que la plupart des espèces du genre.
 </t>
         </is>
@@ -611,7 +629,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a connu un certain succès horticole au milieu du XIXe siècle, mais est tombée dans un relatif oubli depuis.
 </t>
